--- a/data/hotels_by_city/Dallas/Dallas_shard_705.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_705.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,354 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r462236436-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>98395</t>
+  </si>
+  <si>
+    <t>462236436</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Studio 6</t>
+  </si>
+  <si>
+    <t>Do not I repeat do not stay here!   It's awful.  Cockroaches everywhere in our room. Phones do not work and the front desk does not care.  People screaming and running in the hallways and outside the windows.  Horns honking and waiting for someone to come out of the building.  I don't want to pass judgment but I am pretty sure this is a judgment by saying I'm pretty sure they were drug dealers and all sorts of funky stuff going on in the hallway we wedged a chair up against the doorknob of the door with the lock that didn't work.  The entry door into the building not locked anywhere in the world can walk in there.  They did refund the money for the second night and we called our vacation short and just got on a plane and get the hell out of there.  No pool.  Edit stated that they had many kitchens all we had was a microwave no fridge raider no stove nothing not even a chair in the room.  DO NOT STAY HERE!!!!!!  I would have slept in the airport I would've slept in my car I would've slept just about anywhere else other than there my skin is crawling.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Do not I repeat do not stay here!   It's awful.  Cockroaches everywhere in our room. Phones do not work and the front desk does not care.  People screaming and running in the hallways and outside the windows.  Horns honking and waiting for someone to come out of the building.  I don't want to pass judgment but I am pretty sure this is a judgment by saying I'm pretty sure they were drug dealers and all sorts of funky stuff going on in the hallway we wedged a chair up against the doorknob of the door with the lock that didn't work.  The entry door into the building not locked anywhere in the world can walk in there.  They did refund the money for the second night and we called our vacation short and just got on a plane and get the hell out of there.  No pool.  Edit stated that they had many kitchens all we had was a microwave no fridge raider no stove nothing not even a chair in the room.  DO NOT STAY HERE!!!!!!  I would have slept in the airport I would've slept in my car I would've slept just about anywhere else other than there my skin is crawling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r461149767-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>461149767</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Advertising </t>
+  </si>
+  <si>
+    <t>The pictures on the Facebook page and on the website are FALSE advertising. I wish we had taken pictures before we left because the room was AWFUL. Not only do they pull you in with lying pictures, they don't give refunds. We reserved a room online and when we arrived we couldn't believe our eyes. The bed looked like a trundle, at best. The bathroom was tiny, stinky and gross. The walls were so thin you could hear someone whispering next door. There are no phones in the rooms and you could tell a lot of weed was smoked there as well. But the worst part is the management. Not only did they refuse to give us a full refund, but they didn't even apologize for the fact that they falsely sold us a room. Don't let this hotel or any others scam you like this. Be very careful about reserving a room online. We sure won't be anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Studio 6 Arlington, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>The pictures on the Facebook page and on the website are FALSE advertising. I wish we had taken pictures before we left because the room was AWFUL. Not only do they pull you in with lying pictures, they don't give refunds. We reserved a room online and when we arrived we couldn't believe our eyes. The bed looked like a trundle, at best. The bathroom was tiny, stinky and gross. The walls were so thin you could hear someone whispering next door. There are no phones in the rooms and you could tell a lot of weed was smoked there as well. But the worst part is the management. Not only did they refuse to give us a full refund, but they didn't even apologize for the fact that they falsely sold us a room. Don't let this hotel or any others scam you like this. Be very careful about reserving a room online. We sure won't be anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r426024302-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>426024302</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Friends Weekend</t>
+  </si>
+  <si>
+    <t>What a nightmare this place is!!! Absolutely horrible and I wouldn't even try to save any money on this place! This place seems like it was at one point an older apt building. I'm a handicap man and she put us at the back of the complex it was a painful time walking.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r362310854-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362310854</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Good location Hotel not so much</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location not to far from all the attractions in Arlington and conveniently is located next to a store but hotel is about Sub par only gave 2 star due to the location of it Parking is very limited so once you have your space be sure to hold on to it Hotel is fairly decent, room was clean it only had 1 tv for a suite and it was not in the bedroom only in the living area. very spacious and had all the amenities that was listed and was stains on the dining table and chair. Pull out couch was more comfortable than the bed itself maybe the room I had but I can't speak for others I expected a little better but I guess you get what you pay forMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location not to far from all the attractions in Arlington and conveniently is located next to a store but hotel is about Sub par only gave 2 star due to the location of it Parking is very limited so once you have your space be sure to hold on to it Hotel is fairly decent, room was clean it only had 1 tv for a suite and it was not in the bedroom only in the living area. very spacious and had all the amenities that was listed and was stains on the dining table and chair. Pull out couch was more comfortable than the bed itself maybe the room I had but I can't speak for others I expected a little better but I guess you get what you pay forMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r361293021-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>361293021</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Ghetto 6</t>
+  </si>
+  <si>
+    <t>Usually stay at the Studio 6 in south Arlington however it was booked and tried this Studio 6.  The parking lot should have been a good sign to keep on moving, it was littered with trash and older damaged vehicles.  Requested a top floor during the reservation however was put on the middle floor.  Walls are supper thin and it was very loud.  Lots of families with unsupervised kids running around screaming with the parents screaming as well. It has been poorly remodeled and the television is the smallest I have ever seen in a motel.  The internet was useless on the second day and the clerk said "My computer is working must be your computer".  Went online with my hot spot with no problems.  Called the clerk back and stated I was able to get online with my own internet.  She replied "We have been getting a lot of complaints about the internet" and there was nothing she could and/or would do.  After 2 nights it was so unbearable with the noise I had to leave.  I had to pay the full daily rate for the 2 days, I objected that why should I have to pay full price and leave due to their failures, she said it was my problem and the other clerk actually laughed at me.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 Arlington, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Usually stay at the Studio 6 in south Arlington however it was booked and tried this Studio 6.  The parking lot should have been a good sign to keep on moving, it was littered with trash and older damaged vehicles.  Requested a top floor during the reservation however was put on the middle floor.  Walls are supper thin and it was very loud.  Lots of families with unsupervised kids running around screaming with the parents screaming as well. It has been poorly remodeled and the television is the smallest I have ever seen in a motel.  The internet was useless on the second day and the clerk said "My computer is working must be your computer".  Went online with my hot spot with no problems.  Called the clerk back and stated I was able to get online with my own internet.  She replied "We have been getting a lot of complaints about the internet" and there was nothing she could and/or would do.  After 2 nights it was so unbearable with the noise I had to leave.  I had to pay the full daily rate for the 2 days, I objected that why should I have to pay full price and leave due to their failures, she said it was my problem and the other clerk actually laughed at me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r353570099-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>353570099</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>The room was spacious and good value for the price.  The location in the middle of DFW was the best part.  Easy access to the freeway makes getting around town quick and convenient.  The property is about 30 min from the airport and very close to attractions in Arlington. I would recommend this property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r325050400-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>325050400</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
+  </si>
+  <si>
+    <t>When we first walked in, I have to admit, I was ready to leave. We put our big boy pants on and checked in. All of the common areas were stripped down to bare concrete. It looked really bad. We went to our rooms and were very surprised. The room was very nice with new everything. There was an apartment size fridge two burner cook top and a microwave. New bathroom new paint everywhere. I would hold off using the property for a family vacation to 6 flags until they finished the renovation but for a trip to the game it works well. It looks like it will excellent when they get it done. Staff was very nice and it was pretty quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>When we first walked in, I have to admit, I was ready to leave. We put our big boy pants on and checked in. All of the common areas were stripped down to bare concrete. It looked really bad. We went to our rooms and were very surprised. The room was very nice with new everything. There was an apartment size fridge two burner cook top and a microwave. New bathroom new paint everywhere. I would hold off using the property for a family vacation to 6 flags until they finished the renovation but for a trip to the game it works well. It looks like it will excellent when they get it done. Staff was very nice and it was pretty quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r310813576-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>310813576</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Undergoing renovation - shows promise!</t>
+  </si>
+  <si>
+    <t>This used to be some other property and is now a Studio 6. It's undergoing major renovations but shows much promise. When completed this will probably be a really nice location.My room was the latest M6 style and had a big fridge, two-burner cooktop, microwave and sink. The bed was super comfortable and the A/C worked great. The only thing missing was a comfortable chair or couch to sit on.There is a good sized convenience store next door with a Subway. If you drive a  semi or big RV there is limited parking on the shoulder of the service drive. The driveway is real tight but I was able to park my 26' box truck in the uncrowded lot. Having a car gives you more flexibility to drive to restaurants in the area.I'd stay here again if I was in the area for an overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This used to be some other property and is now a Studio 6. It's undergoing major renovations but shows much promise. When completed this will probably be a really nice location.My room was the latest M6 style and had a big fridge, two-burner cooktop, microwave and sink. The bed was super comfortable and the A/C worked great. The only thing missing was a comfortable chair or couch to sit on.There is a good sized convenience store next door with a Subway. If you drive a  semi or big RV there is limited parking on the shoulder of the service drive. The driveway is real tight but I was able to park my 26' box truck in the uncrowded lot. Having a car gives you more flexibility to drive to restaurants in the area.I'd stay here again if I was in the area for an overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r296710836-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>296710836</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be better. </t>
+  </si>
+  <si>
+    <t>Lobby was nice, feont desk very helpful and nice, walk to room was not so good constryction everywhere, Very old hallways, ligjts flickering. Room was a surprise very clean and smelled good so that was nice and made it worth the $50 guess you get what you pay for. It has potential if tjey can finish cleaning it up and remodeling.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r278616405-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>278616405</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>FLOPHOUSE, NOT A MOTEL FOR OUT OF TOWNERS</t>
+  </si>
+  <si>
+    <t>The guests are one  payment from homelessness.  Pit Bills, drug users, unemployed. The desk clerk herself told me she hates her job.  The lobby always has guests was arguing with the desk clerks.   The carpet is old filthy smelly toxic. The " remodeling" is CHEAP crap in a dilapidated building. The whole thing is a tear down. DON'T make a reservation, or your debit card is charged whether you stay or not.   TVs not hooked up &amp; working but that is the fault of Time Warner, not the  crooked management/owner.There were cracks in the door, peeling wall paper, A/C had no freon. Ice machines broke. You have to walk a mile down endless halls to get anywhere. This is a slum.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Studio 6 Arlington, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>The guests are one  payment from homelessness.  Pit Bills, drug users, unemployed. The desk clerk herself told me she hates her job.  The lobby always has guests was arguing with the desk clerks.   The carpet is old filthy smelly toxic. The " remodeling" is CHEAP crap in a dilapidated building. The whole thing is a tear down. DON'T make a reservation, or your debit card is charged whether you stay or not.   TVs not hooked up &amp; working but that is the fault of Time Warner, not the  crooked management/owner.There were cracks in the door, peeling wall paper, A/C had no freon. Ice machines broke. You have to walk a mile down endless halls to get anywhere. This is a slum.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r265283969-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>265283969</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Pros: Very clean, large 2 doublebed room, the beds were comfortable, hardwood floors, high pressure shower head, friendly staff, inroom coffee and coffee machine, iron and board, pet friendly, Smoking allowed, outdoor swimming pool    cons: extremely thin walls, entrances we're messy with old beds propped up against the wall, as we were leaving there was a pile of dog crap at the entrance by the elevator, the toilet didn't work right and the water kept rising upto the top and would never flush all the way down, there was a burn hole in the comforter but being a smoker that can be forgiven.    it was a Saturday and there was an event with the NASCAR races in town  so there wasn't very many rooms in Arlington or the surrounding cities and if there were most places were charging five times the rate the price we paid was 78 dollars and some change for one night.  this actually was one of the very best rates in town in lieu of all the problems would I stay there again yes. this place was acceptable yet not my first choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Pros: Very clean, large 2 doublebed room, the beds were comfortable, hardwood floors, high pressure shower head, friendly staff, inroom coffee and coffee machine, iron and board, pet friendly, Smoking allowed, outdoor swimming pool    cons: extremely thin walls, entrances we're messy with old beds propped up against the wall, as we were leaving there was a pile of dog crap at the entrance by the elevator, the toilet didn't work right and the water kept rising upto the top and would never flush all the way down, there was a burn hole in the comforter but being a smoker that can be forgiven.    it was a Saturday and there was an event with the NASCAR races in town  so there wasn't very many rooms in Arlington or the surrounding cities and if there were most places were charging five times the rate the price we paid was 78 dollars and some change for one night.  this actually was one of the very best rates in town in lieu of all the problems would I stay there again yes. this place was acceptable yet not my first choiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r226462877-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>226462877</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Rooms smelled really bad. Needs upgrade on building seems like apartments than hotels.killed roaches in rooms the doors had cracks on the side wouldn't dident have good door fitting around frame!!!!!!!!!!!!! Most of all very noisy and a bunch of kids playing inside of building running through out the hallways ice machine in lobby not working.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r161210499-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>161210499</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Great rate...will stay again</t>
+  </si>
+  <si>
+    <t>This hotel was everything I expected for the rate paid. The staff was friendly and helpful, the room was very small but it was cheap and clean. Our reservation for a non smoking king room was not found in their computer when we tried to check in and all they had left was smoking rooms which we relucantly accepted after the clerk assured us that the room would not smell like smoke. She was right, aside from the ashtray in the room, there was no distinguishing otherwise. The hallway was a totally different story though! I just held my breath every time I walked through to my room because the musty smell of smoke was overwhelming! The hotel is somewhat run down and even though this is an extended stay hotel I do believe people actually live on a more "long term" basis at this property. It has the distinct feel of a low income apartment complex more than a hotel. But overall this place was in the area I wanted to stay, offered what I needed at a price I couldn't beat and I probably will stay here should I ever have the need again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was everything I expected for the rate paid. The staff was friendly and helpful, the room was very small but it was cheap and clean. Our reservation for a non smoking king room was not found in their computer when we tried to check in and all they had left was smoking rooms which we relucantly accepted after the clerk assured us that the room would not smell like smoke. She was right, aside from the ashtray in the room, there was no distinguishing otherwise. The hallway was a totally different story though! I just held my breath every time I walked through to my room because the musty smell of smoke was overwhelming! The hotel is somewhat run down and even though this is an extended stay hotel I do believe people actually live on a more "long term" basis at this property. It has the distinct feel of a low income apartment complex more than a hotel. But overall this place was in the area I wanted to stay, offered what I needed at a price I couldn't beat and I probably will stay here should I ever have the need again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r156075565-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>156075565</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>Avoid handicapped room</t>
+  </si>
+  <si>
+    <t>Checked into the hotel and needed a first floor room.  Gave us room 306, a handicapped room.  The room had an odd smell, and there was no tub of course, just the shower that the water ran all over the floor.  The commode clogged up. The refrigerator did not cool very well.  Upon check in the lady at the front desk was the rudest person I have ever encountered.  We requested a different room on the first floor a couple days later.  The room was very clean and up to date and everything was working fine.  Also, dealt with other hotel staff who were very nice.  The price is certainly right and they do allow you to have an animal for a small deposit.  So all in all I would give the hotel an average rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Checked into the hotel and needed a first floor room.  Gave us room 306, a handicapped room.  The room had an odd smell, and there was no tub of course, just the shower that the water ran all over the floor.  The commode clogged up. The refrigerator did not cool very well.  Upon check in the lady at the front desk was the rudest person I have ever encountered.  We requested a different room on the first floor a couple days later.  The room was very clean and up to date and everything was working fine.  Also, dealt with other hotel staff who were very nice.  The price is certainly right and they do allow you to have an animal for a small deposit.  So all in all I would give the hotel an average rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r148068973-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>148068973</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Not the worst Studio 6 Property</t>
+  </si>
+  <si>
+    <t>This property has seen better days. The property faces away from the street, so the  Front lobby is at the back of the property.  The Front Lobby gives you the impression of a very nice Hotel/Motel.  The night clerk was very pleasant, helpful, and pleasing.  The checkin process was ok.  Parking was ok and near the front lobby.  The experience went downhill from there.  The room was smelly and, dirty.  We asked for another room, but it was equally as bad, so we kept the initial room.  Carpets were stained.  There was debris around the room.  Walls were stained.  The tub / shower water temp never really got above barely warm.  Coffee maker worked, and there were bags of coffee in the room.  The small refer was stained, and we did not use it.  There were doors to next rooms on two sides of our room.  We could hear laughing and talking through one of the doors till late late into the night.  T.V. worked fine.  I was disappointed, I thought that booking a room at an extended stay property would be an upgrade, but this is not the case.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This property has seen better days. The property faces away from the street, so the  Front lobby is at the back of the property.  The Front Lobby gives you the impression of a very nice Hotel/Motel.  The night clerk was very pleasant, helpful, and pleasing.  The checkin process was ok.  Parking was ok and near the front lobby.  The experience went downhill from there.  The room was smelly and, dirty.  We asked for another room, but it was equally as bad, so we kept the initial room.  Carpets were stained.  There was debris around the room.  Walls were stained.  The tub / shower water temp never really got above barely warm.  Coffee maker worked, and there were bags of coffee in the room.  The small refer was stained, and we did not use it.  There were doors to next rooms on two sides of our room.  We could hear laughing and talking through one of the doors till late late into the night.  T.V. worked fine.  I was disappointed, I thought that booking a room at an extended stay property would be an upgrade, but this is not the case.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r131472444-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>131472444</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>rundown building.... looked like front desk was also doing the housekeeping. Room did not feel clean and it also didnt feel safe. Avoid</t>
+  </si>
+  <si>
+    <t>May 2012</t>
   </si>
 </sst>
 </file>
@@ -648,6 +996,994 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_705.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_705.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Do not I repeat do not stay here!   It's awful.  Cockroaches everywhere in our room. Phones do not work and the front desk does not care.  People screaming and running in the hallways and outside the windows.  Horns honking and waiting for someone to come out of the building.  I don't want to pass judgment but I am pretty sure this is a judgment by saying I'm pretty sure they were drug dealers and all sorts of funky stuff going on in the hallway we wedged a chair up against the doorknob of the door with the lock that didn't work.  The entry door into the building not locked anywhere in the world can walk in there.  They did refund the money for the second night and we called our vacation short and just got on a plane and get the hell out of there.  No pool.  Edit stated that they had many kitchens all we had was a microwave no fridge raider no stove nothing not even a chair in the room.  DO NOT STAY HERE!!!!!!  I would have slept in the airport I would've slept in my car I would've slept just about anywhere else other than there my skin is crawling.More</t>
   </si>
   <si>
+    <t>Amy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r461149767-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>The pictures on the Facebook page and on the website are FALSE advertising. I wish we had taken pictures before we left because the room was AWFUL. Not only do they pull you in with lying pictures, they don't give refunds. We reserved a room online and when we arrived we couldn't believe our eyes. The bed looked like a trundle, at best. The bathroom was tiny, stinky and gross. The walls were so thin you could hear someone whispering next door. There are no phones in the rooms and you could tell a lot of weed was smoked there as well. But the worst part is the management. Not only did they refuse to give us a full refund, but they didn't even apologize for the fact that they falsely sold us a room. Don't let this hotel or any others scam you like this. Be very careful about reserving a room online. We sure won't be anymore.More</t>
   </si>
   <si>
+    <t>583kyled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r426024302-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Fred Ŧ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r362310854-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Hotel is in a good location not to far from all the attractions in Arlington and conveniently is located next to a store but hotel is about Sub par only gave 2 star due to the location of it Parking is very limited so once you have your space be sure to hold on to it Hotel is fairly decent, room was clean it only had 1 tv for a suite and it was not in the bedroom only in the living area. very spacious and had all the amenities that was listed and was stains on the dining table and chair. Pull out couch was more comfortable than the bed itself maybe the room I had but I can't speak for others I expected a little better but I guess you get what you pay forMore</t>
   </si>
   <si>
+    <t>Steve T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r361293021-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>Usually stay at the Studio 6 in south Arlington however it was booked and tried this Studio 6.  The parking lot should have been a good sign to keep on moving, it was littered with trash and older damaged vehicles.  Requested a top floor during the reservation however was put on the middle floor.  Walls are supper thin and it was very loud.  Lots of families with unsupervised kids running around screaming with the parents screaming as well. It has been poorly remodeled and the television is the smallest I have ever seen in a motel.  The internet was useless on the second day and the clerk said "My computer is working must be your computer".  Went online with my hot spot with no problems.  Called the clerk back and stated I was able to get online with my own internet.  She replied "We have been getting a lot of complaints about the internet" and there was nothing she could and/or would do.  After 2 nights it was so unbearable with the noise I had to leave.  I had to pay the full daily rate for the 2 days, I objected that why should I have to pay full price and leave due to their failures, she said it was my problem and the other clerk actually laughed at me.More</t>
   </si>
   <si>
+    <t>ciscokate258</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r353570099-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>The room was spacious and good value for the price.  The location in the middle of DFW was the best part.  Easy access to the freeway makes getting around town quick and convenient.  The property is about 30 min from the airport and very close to attractions in Arlington. I would recommend this property.</t>
   </si>
   <si>
+    <t>scottidog36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r325050400-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>When we first walked in, I have to admit, I was ready to leave. We put our big boy pants on and checked in. All of the common areas were stripped down to bare concrete. It looked really bad. We went to our rooms and were very surprised. The room was very nice with new everything. There was an apartment size fridge two burner cook top and a microwave. New bathroom new paint everywhere. I would hold off using the property for a family vacation to 6 flags until they finished the renovation but for a trip to the game it works well. It looks like it will excellent when they get it done. Staff was very nice and it was pretty quiet.More</t>
   </si>
   <si>
+    <t>rfross</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r310813576-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>This used to be some other property and is now a Studio 6. It's undergoing major renovations but shows much promise. When completed this will probably be a really nice location.My room was the latest M6 style and had a big fridge, two-burner cooktop, microwave and sink. The bed was super comfortable and the A/C worked great. The only thing missing was a comfortable chair or couch to sit on.There is a good sized convenience store next door with a Subway. If you drive a  semi or big RV there is limited parking on the shoulder of the service drive. The driveway is real tight but I was able to park my 26' box truck in the uncrowded lot. Having a car gives you more flexibility to drive to restaurants in the area.I'd stay here again if I was in the area for an overnight stay.More</t>
   </si>
   <si>
+    <t>Victoria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r296710836-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Apollowoman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r278616405-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>The guests are one  payment from homelessness.  Pit Bills, drug users, unemployed. The desk clerk herself told me she hates her job.  The lobby always has guests was arguing with the desk clerks.   The carpet is old filthy smelly toxic. The " remodeling" is CHEAP crap in a dilapidated building. The whole thing is a tear down. DON'T make a reservation, or your debit card is charged whether you stay or not.   TVs not hooked up &amp; working but that is the fault of Time Warner, not the  crooked management/owner.There were cracks in the door, peeling wall paper, A/C had no freon. Ice machines broke. You have to walk a mile down endless halls to get anywhere. This is a slum.More</t>
   </si>
   <si>
+    <t>TamaraReyna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r265283969-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>Pros: Very clean, large 2 doublebed room, the beds were comfortable, hardwood floors, high pressure shower head, friendly staff, inroom coffee and coffee machine, iron and board, pet friendly, Smoking allowed, outdoor swimming pool    cons: extremely thin walls, entrances we're messy with old beds propped up against the wall, as we were leaving there was a pile of dog crap at the entrance by the elevator, the toilet didn't work right and the water kept rising upto the top and would never flush all the way down, there was a burn hole in the comforter but being a smoker that can be forgiven.    it was a Saturday and there was an event with the NASCAR races in town  so there wasn't very many rooms in Arlington or the surrounding cities and if there were most places were charging five times the rate the price we paid was 78 dollars and some change for one night.  this actually was one of the very best rates in town in lieu of all the problems would I stay there again yes. this place was acceptable yet not my first choiceMore</t>
   </si>
   <si>
+    <t>Camp84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r226462877-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>Rooms smelled really bad. Needs upgrade on building seems like apartments than hotels.killed roaches in rooms the doors had cracks on the side wouldn't dident have good door fitting around frame!!!!!!!!!!!!! Most of all very noisy and a bunch of kids playing inside of building running through out the hallways ice machine in lobby not working.</t>
   </si>
   <si>
+    <t>TexTraveler21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r161210499-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>This hotel was everything I expected for the rate paid. The staff was friendly and helpful, the room was very small but it was cheap and clean. Our reservation for a non smoking king room was not found in their computer when we tried to check in and all they had left was smoking rooms which we relucantly accepted after the clerk assured us that the room would not smell like smoke. She was right, aside from the ashtray in the room, there was no distinguishing otherwise. The hallway was a totally different story though! I just held my breath every time I walked through to my room because the musty smell of smoke was overwhelming! The hotel is somewhat run down and even though this is an extended stay hotel I do believe people actually live on a more "long term" basis at this property. It has the distinct feel of a low income apartment complex more than a hotel. But overall this place was in the area I wanted to stay, offered what I needed at a price I couldn't beat and I probably will stay here should I ever have the need again.More</t>
   </si>
   <si>
+    <t>G H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r156075565-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -459,6 +501,9 @@
     <t>Checked into the hotel and needed a first floor room.  Gave us room 306, a handicapped room.  The room had an odd smell, and there was no tub of course, just the shower that the water ran all over the floor.  The commode clogged up. The refrigerator did not cool very well.  Upon check in the lady at the front desk was the rudest person I have ever encountered.  We requested a different room on the first floor a couple days later.  The room was very clean and up to date and everything was working fine.  Also, dealt with other hotel staff who were very nice.  The price is certainly right and they do allow you to have an animal for a small deposit.  So all in all I would give the hotel an average rating.More</t>
   </si>
   <si>
+    <t>califdann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r148068973-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -478,6 +523,9 @@
   </si>
   <si>
     <t>This property has seen better days. The property faces away from the street, so the  Front lobby is at the back of the property.  The Front Lobby gives you the impression of a very nice Hotel/Motel.  The night clerk was very pleasant, helpful, and pleasing.  The checkin process was ok.  Parking was ok and near the front lobby.  The experience went downhill from there.  The room was smelly and, dirty.  We asked for another room, but it was equally as bad, so we kept the initial room.  Carpets were stained.  There was debris around the room.  Walls were stained.  The tub / shower water temp never really got above barely warm.  Coffee maker worked, and there were bags of coffee in the room.  The small refer was stained, and we did not use it.  There were doors to next rooms on two sides of our room.  We could hear laughing and talking through one of the doors till late late into the night.  T.V. worked fine.  I was disappointed, I thought that booking a room at an extended stay property would be an upgrade, but this is not the case.More</t>
+  </si>
+  <si>
+    <t>Roy V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r131472444-Studio_6_Arlington-Arlington_Texas.html</t>
@@ -1000,43 +1048,47 @@
       <c r="A2" t="n">
         <v>20867</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1050,50 +1102,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20867</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>30135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1105,56 +1161,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20867</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1168,50 +1228,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20867</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1225,50 +1289,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20867</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1286,56 +1354,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20867</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1353,50 +1425,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20867</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1416,50 +1492,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20867</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>97557</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1473,50 +1553,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20867</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>6587</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1530,50 +1614,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20867</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1591,56 +1679,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20867</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1654,41 +1746,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20867</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1717,41 +1813,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20867</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1780,50 +1880,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20867</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>86439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1847,50 +1951,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20867</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1914,50 +2022,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20867</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -1981,7 +2093,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_705.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_705.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,141 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Mark S</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r594663439-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>98395</t>
+  </si>
+  <si>
+    <t>594663439</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Worst hotel ever. Hookers, bums, bugs, and rude staff. So if you like those things along with a broken back door. Maybe you and your loved ones will enjoy your time if that's your thing, syringes in the parking lot. I could not believe how bad this place is. Glad we had the pistol.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r592033838-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>592033838</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>I am very picky, so I was pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I have stayed in 4 and 5 star rated hotels in Dallas, Houston, Las Vegas ( The Bellagio) and several other cities in years past. I have stayed at a couple of Motel 6 hotels in the past as well, and this has to be the very best one I've ever stayed in. I read reviews before I decided to check it out and I was glad I didn't just go off what other people wrote. Though I believe everyone has a various amount of opinions and are entitled to them, I think that maybe, in the past, the hotel possibly could have had some issues, but I think the owners have made genuine attempts to make improvements and have made a lot of changes to improve the hotel. The beds were all very newly replaced with new mattresses and the bathroom were very nice. New tile showers and very nice tubs. There wasn't one stain in the tub. Even though I am not at all a sit down bath person, the tubs were super nice and the cleanliness was very refreshing. Upon arriving to the hotel on the 1st day, I was allowed to view several rooms before I made the decision to stay. I looked at the "studio" type as well as the separate bedroom/living area room and I was quite surprised. The rooms were nice and clean, smelled nice, and had carpeted, hardwood floors that looked very...I have stayed in 4 and 5 star rated hotels in Dallas, Houston, Las Vegas ( The Bellagio) and several other cities in years past. I have stayed at a couple of Motel 6 hotels in the past as well, and this has to be the very best one I've ever stayed in. I read reviews before I decided to check it out and I was glad I didn't just go off what other people wrote. Though I believe everyone has a various amount of opinions and are entitled to them, I think that maybe, in the past, the hotel possibly could have had some issues, but I think the owners have made genuine attempts to make improvements and have made a lot of changes to improve the hotel. The beds were all very newly replaced with new mattresses and the bathroom were very nice. New tile showers and very nice tubs. There wasn't one stain in the tub. Even though I am not at all a sit down bath person, the tubs were super nice and the cleanliness was very refreshing. Upon arriving to the hotel on the 1st day, I was allowed to view several rooms before I made the decision to stay. I looked at the "studio" type as well as the separate bedroom/living area room and I was quite surprised. The rooms were nice and clean, smelled nice, and had carpeted, hardwood floors that looked very well maintained. The bed was nice and seemed to have a decent mattress. I have had some much more uncomfortable beds at other extended term hotels before. The young gentleman who was working the front desk that evening, Sam, though he was very busy with guests and potential guest coming and going, was very personable and professional. He answered all my questions and explained policy to me very thoroughly. He was extremely accommodating and was conscious of me being a single woman and offered to put me in a room closed  to the front office for my safety and peace of mind. One of the things I always look for when paying for a service or anything concerning customer service is politeness and professionalism. I had called another popular hotel chain in the area and it was day and night between the customer service I received. The other hotel employees were very rude both on the phone and in person, but when I was assisted by Mr. Sam, I immediately made up my mind that the Motel 6 Studio on N Watson Rd in Arlington was worth paying the extra few dollars to stay with them as opposed to the other chain. I have had a few special accommodation needs, due to personal issues, that the staff including Sam and his sister (that also works there) as well as the other two front desk staff members that I  met made me feel appreciative to them for working with. I encourage anyone to look and experience even one stay for yourself and make your own decision about, before just going by what some people have negatively said about this hotel. Sometimes, for several reasons, people become disgruntle and try to discredit a business just because they didn't get their way or even due to some fault of their own that they do not want to admit. Most of the time I they had unreasonable requirements or expectations, people will speak negatively about individuals and businesses. I have seen the owner ( the wife) in the building a couple of times, and she was very pleasant too. I, for one, am very pleased with the service I received from this hotel. See for yourself. Stay a night and make your own decision. I liked it a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I have stayed in 4 and 5 star rated hotels in Dallas, Houston, Las Vegas ( The Bellagio) and several other cities in years past. I have stayed at a couple of Motel 6 hotels in the past as well, and this has to be the very best one I've ever stayed in. I read reviews before I decided to check it out and I was glad I didn't just go off what other people wrote. Though I believe everyone has a various amount of opinions and are entitled to them, I think that maybe, in the past, the hotel possibly could have had some issues, but I think the owners have made genuine attempts to make improvements and have made a lot of changes to improve the hotel. The beds were all very newly replaced with new mattresses and the bathroom were very nice. New tile showers and very nice tubs. There wasn't one stain in the tub. Even though I am not at all a sit down bath person, the tubs were super nice and the cleanliness was very refreshing. Upon arriving to the hotel on the 1st day, I was allowed to view several rooms before I made the decision to stay. I looked at the "studio" type as well as the separate bedroom/living area room and I was quite surprised. The rooms were nice and clean, smelled nice, and had carpeted, hardwood floors that looked very...I have stayed in 4 and 5 star rated hotels in Dallas, Houston, Las Vegas ( The Bellagio) and several other cities in years past. I have stayed at a couple of Motel 6 hotels in the past as well, and this has to be the very best one I've ever stayed in. I read reviews before I decided to check it out and I was glad I didn't just go off what other people wrote. Though I believe everyone has a various amount of opinions and are entitled to them, I think that maybe, in the past, the hotel possibly could have had some issues, but I think the owners have made genuine attempts to make improvements and have made a lot of changes to improve the hotel. The beds were all very newly replaced with new mattresses and the bathroom were very nice. New tile showers and very nice tubs. There wasn't one stain in the tub. Even though I am not at all a sit down bath person, the tubs were super nice and the cleanliness was very refreshing. Upon arriving to the hotel on the 1st day, I was allowed to view several rooms before I made the decision to stay. I looked at the "studio" type as well as the separate bedroom/living area room and I was quite surprised. The rooms were nice and clean, smelled nice, and had carpeted, hardwood floors that looked very well maintained. The bed was nice and seemed to have a decent mattress. I have had some much more uncomfortable beds at other extended term hotels before. The young gentleman who was working the front desk that evening, Sam, though he was very busy with guests and potential guest coming and going, was very personable and professional. He answered all my questions and explained policy to me very thoroughly. He was extremely accommodating and was conscious of me being a single woman and offered to put me in a room closed  to the front office for my safety and peace of mind. One of the things I always look for when paying for a service or anything concerning customer service is politeness and professionalism. I had called another popular hotel chain in the area and it was day and night between the customer service I received. The other hotel employees were very rude both on the phone and in person, but when I was assisted by Mr. Sam, I immediately made up my mind that the Motel 6 Studio on N Watson Rd in Arlington was worth paying the extra few dollars to stay with them as opposed to the other chain. I have had a few special accommodation needs, due to personal issues, that the staff including Sam and his sister (that also works there) as well as the other two front desk staff members that I  met made me feel appreciative to them for working with. I encourage anyone to look and experience even one stay for yourself and make your own decision about, before just going by what some people have negatively said about this hotel. Sometimes, for several reasons, people become disgruntle and try to discredit a business just because they didn't get their way or even due to some fault of their own that they do not want to admit. Most of the time I they had unreasonable requirements or expectations, people will speak negatively about individuals and businesses. I have seen the owner ( the wife) in the building a couple of times, and she was very pleasant too. I, for one, am very pleased with the service I received from this hotel. See for yourself. Stay a night and make your own decision. I liked it a lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r590646748-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>590646748</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Curtain had blood on it...and holes in curtains.  The pull out couch did not work.  We pulled it out to check the bed out and couldnt get it back in...had to call maintenance.  When I called the front desk to ask for help I was told that they did not offer the pull out bed because it was too hard to put back together...well I told them that i WAS NOT informed of this upon check in.  This motel used to be an apartment complex.....it is a very old property and smells of moth balls.  Had to show ID to get extra blankets.  The staff was was very nice...no problems with them at all.  But there were homeless people wandering the hall when we arrived at our room late after a concert.  I will not go back or recommend this motel 6 to anyone.  Did not feel safe.  The only GOOD thing about it was that there was not any carpet on the floor....after seeing the shape of the curtains I would not want to know what possibly might be in carpet.  Bed was comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Studio 6 Arlington, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Curtain had blood on it...and holes in curtains.  The pull out couch did not work.  We pulled it out to check the bed out and couldnt get it back in...had to call maintenance.  When I called the front desk to ask for help I was told that they did not offer the pull out bed because it was too hard to put back together...well I told them that i WAS NOT informed of this upon check in.  This motel used to be an apartment complex.....it is a very old property and smells of moth balls.  Had to show ID to get extra blankets.  The staff was was very nice...no problems with them at all.  But there were homeless people wandering the hall when we arrived at our room late after a concert.  I will not go back or recommend this motel 6 to anyone.  Did not feel safe.  The only GOOD thing about it was that there was not any carpet on the floor....after seeing the shape of the curtains I would not want to know what possibly might be in carpet.  Bed was comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r515712764-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>515712764</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely Terrible </t>
+  </si>
+  <si>
+    <t>This hotel is absolutely the worst place I have every stayed inMotel 6/Studio 6 at Avenue K and Brown Street in Arlington Texas room was booked for 4 had 2 beds that were as hard as sleeping on concrete sidewalk.  Only 2 towels in room and when we asked for more were told it would be 11am before we would be able to obtain them that that was the time house keepers would be there. 1 couch in living area and only 2 chairs at dining table, no shampoo, no soap, 1/2 roll of toilet tissue, and to finish the deal when we ask where we might get ice we were told that there was not an ice machine on the premises!!! NO POOL EITHERMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 Arlington, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely the worst place I have every stayed inMotel 6/Studio 6 at Avenue K and Brown Street in Arlington Texas room was booked for 4 had 2 beds that were as hard as sleeping on concrete sidewalk.  Only 2 towels in room and when we asked for more were told it would be 11am before we would be able to obtain them that that was the time house keepers would be there. 1 couch in living area and only 2 chairs at dining table, no shampoo, no soap, 1/2 roll of toilet tissue, and to finish the deal when we ask where we might get ice we were told that there was not an ice machine on the premises!!! NO POOL EITHERMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r468983366-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>468983366</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Roach Alert.......Baby roaches</t>
+  </si>
+  <si>
+    <t>This place is by far the worst I"ve EVER experienced. The halls leading to the room smelled awful! It had the strongest stench! OMG!!! It was disgusting. Now to the room....the roaches were having a class reunion. They brought the WHOLE family. There were soooo many of the little bitty roaches along with the bigger ones. I stood my luggage up against the wall and when i grabbed my suitcase to get clothes out of it, what was there? Yep you guessed it? Roaches? The room smelled like it had been closed  up for centuries, no fresh air EVER! I wouldn't allow my pets to stay here. Roaches were all on the table, crawling on everything.All of them that i killed, I left them in the floor and they were still in the floor when we returned. Just disgusting. And that sofa must've been found on side of the road that someone had left for the garbage truck. I really think its an apartment complex and when they have vacancies, they rent rooms. It was the worst. DO NOT, I REPEAT, DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This place is by far the worst I"ve EVER experienced. The halls leading to the room smelled awful! It had the strongest stench! OMG!!! It was disgusting. Now to the room....the roaches were having a class reunion. They brought the WHOLE family. There were soooo many of the little bitty roaches along with the bigger ones. I stood my luggage up against the wall and when i grabbed my suitcase to get clothes out of it, what was there? Yep you guessed it? Roaches? The room smelled like it had been closed  up for centuries, no fresh air EVER! I wouldn't allow my pets to stay here. Roaches were all on the table, crawling on everything.All of them that i killed, I left them in the floor and they were still in the floor when we returned. Just disgusting. And that sofa must've been found on side of the road that someone had left for the garbage truck. I really think its an apartment complex and when they have vacancies, they rent rooms. It was the worst. DO NOT, I REPEAT, DO NOT STAY HERE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r462236436-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
-    <t>30183</t>
-  </si>
-  <si>
-    <t>98395</t>
-  </si>
-  <si>
     <t>462236436</t>
   </si>
   <si>
@@ -186,9 +306,6 @@
     <t>Do not I repeat do not stay here!   It's awful.  Cockroaches everywhere in our room. Phones do not work and the front desk does not care.  People screaming and running in the hallways and outside the windows.  Horns honking and waiting for someone to come out of the building.  I don't want to pass judgment but I am pretty sure this is a judgment by saying I'm pretty sure they were drug dealers and all sorts of funky stuff going on in the hallway we wedged a chair up against the doorknob of the door with the lock that didn't work.  The entry door into the building not locked anywhere in the world can walk in there.  They did refund the money for the second night and we called our vacation short and just got on a plane and get the hell out of there.  No pool.  Edit stated that they had many kitchens all we had was a microwave no fridge raider no stove nothing not even a chair in the room.  DO NOT STAY HERE!!!!!!  I would have slept in the airport I would've slept in my car I would've slept just about anywhere else other than there my skin is crawling.More</t>
   </si>
   <si>
-    <t>Amy W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r461149767-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -213,9 +330,6 @@
     <t>The pictures on the Facebook page and on the website are FALSE advertising. I wish we had taken pictures before we left because the room was AWFUL. Not only do they pull you in with lying pictures, they don't give refunds. We reserved a room online and when we arrived we couldn't believe our eyes. The bed looked like a trundle, at best. The bathroom was tiny, stinky and gross. The walls were so thin you could hear someone whispering next door. There are no phones in the rooms and you could tell a lot of weed was smoked there as well. But the worst part is the management. Not only did they refuse to give us a full refund, but they didn't even apologize for the fact that they falsely sold us a room. Don't let this hotel or any others scam you like this. Be very careful about reserving a room online. We sure won't be anymore.More</t>
   </si>
   <si>
-    <t>583kyled</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r426024302-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -234,10 +348,46 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Fred Ŧ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r390578692-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>390578692</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!!!  DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE....YOU HAVE BEEN WARNED!!!!   We booked this hotel over the internet and thought the pictures of the room set up were different but nice.  BIG MISTAKE!!  When we walked in, the whole place smelled like cigarettes and weed!  Dogs were barking &amp; kids were crying everywhere!  The hallways were dirty and littered with what looked like drug users.  The walls of the room had several LARGE holes, damages everywhere and had a terrible mold smell.  We immediately checked back out.  I would rather sleep in my car than this dump!  I literally did not feel safe and was scared!!!  The price did NOT match the lack of quality.  They had free wifi but did not give out the password for it.  By the way, they do NOT have a pool.  It has been filled in with concrete.  The tennis court has no net and the nets on the basketball court are all torn.  The parking was free....free to several truck drivers and their big rigs.  It was hard to navigate through the parking lot.  Good luck with the front desk too.  They couldn't even tell us where our room was located on the property!  I am so disgusted with this place!  We booked rooms and drove to Fort Worth...definitely worth the extra 18 mile drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE....YOU HAVE BEEN WARNED!!!!   We booked this hotel over the internet and thought the pictures of the room set up were different but nice.  BIG MISTAKE!!  When we walked in, the whole place smelled like cigarettes and weed!  Dogs were barking &amp; kids were crying everywhere!  The hallways were dirty and littered with what looked like drug users.  The walls of the room had several LARGE holes, damages everywhere and had a terrible mold smell.  We immediately checked back out.  I would rather sleep in my car than this dump!  I literally did not feel safe and was scared!!!  The price did NOT match the lack of quality.  They had free wifi but did not give out the password for it.  By the way, they do NOT have a pool.  It has been filled in with concrete.  The tennis court has no net and the nets on the basketball court are all torn.  The parking was free....free to several truck drivers and their big rigs.  It was hard to navigate through the parking lot.  Good luck with the front desk too.  They couldn't even tell us where our room was located on the property!  I am so disgusted with this place!  We booked rooms and drove to Fort Worth...definitely worth the extra 18 mile drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r384985429-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>384985429</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here while working in the area and was pleasantly surprised. The room was clean and had a fully equipped kitchen. It was a small room, but perfect for what I needed. I work nights and it was very quiet during the day and I had no trouble sleeping. The bed was comfortable. There are no big frills here, but for the really nice price, I was willing to forego a pool and free breakfast and so forth. I would stay here again. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r362310854-Studio_6_Arlington-Arlington_Texas.html</t>
@@ -258,15 +408,9 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Hotel is in a good location not to far from all the attractions in Arlington and conveniently is located next to a store but hotel is about Sub par only gave 2 star due to the location of it Parking is very limited so once you have your space be sure to hold on to it Hotel is fairly decent, room was clean it only had 1 tv for a suite and it was not in the bedroom only in the living area. very spacious and had all the amenities that was listed and was stains on the dining table and chair. Pull out couch was more comfortable than the bed itself maybe the room I had but I can't speak for others I expected a little better but I guess you get what you pay forMore</t>
   </si>
   <si>
-    <t>Steve T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r361293021-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -282,9 +426,6 @@
     <t>Usually stay at the Studio 6 in south Arlington however it was booked and tried this Studio 6.  The parking lot should have been a good sign to keep on moving, it was littered with trash and older damaged vehicles.  Requested a top floor during the reservation however was put on the middle floor.  Walls are supper thin and it was very loud.  Lots of families with unsupervised kids running around screaming with the parents screaming as well. It has been poorly remodeled and the television is the smallest I have ever seen in a motel.  The internet was useless on the second day and the clerk said "My computer is working must be your computer".  Went online with my hot spot with no problems.  Called the clerk back and stated I was able to get online with my own internet.  She replied "We have been getting a lot of complaints about the internet" and there was nothing she could and/or would do.  After 2 nights it was so unbearable with the noise I had to leave.  I had to pay the full daily rate for the 2 days, I objected that why should I have to pay full price and leave due to their failures, she said it was my problem and the other clerk actually laughed at me.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Studio 6 Arlington, responded to this reviewResponded April 7, 2016</t>
   </si>
   <si>
@@ -294,9 +435,6 @@
     <t>Usually stay at the Studio 6 in south Arlington however it was booked and tried this Studio 6.  The parking lot should have been a good sign to keep on moving, it was littered with trash and older damaged vehicles.  Requested a top floor during the reservation however was put on the middle floor.  Walls are supper thin and it was very loud.  Lots of families with unsupervised kids running around screaming with the parents screaming as well. It has been poorly remodeled and the television is the smallest I have ever seen in a motel.  The internet was useless on the second day and the clerk said "My computer is working must be your computer".  Went online with my hot spot with no problems.  Called the clerk back and stated I was able to get online with my own internet.  She replied "We have been getting a lot of complaints about the internet" and there was nothing she could and/or would do.  After 2 nights it was so unbearable with the noise I had to leave.  I had to pay the full daily rate for the 2 days, I objected that why should I have to pay full price and leave due to their failures, she said it was my problem and the other clerk actually laughed at me.More</t>
   </si>
   <si>
-    <t>ciscokate258</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r353570099-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -312,7 +450,40 @@
     <t>The room was spacious and good value for the price.  The location in the middle of DFW was the best part.  Easy access to the freeway makes getting around town quick and convenient.  The property is about 30 min from the airport and very close to attractions in Arlington. I would recommend this property.</t>
   </si>
   <si>
-    <t>scottidog36</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r352759510-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>352759510</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Very impresive place</t>
+  </si>
+  <si>
+    <t>Our entire family stayed here for an event at AT&amp;T stadium which is only 2.5 miles away. Very clean and quiet. The staff is very friendly and helpful. The rooms are spacious with full size fridge, cook-top, microwave, extended TV channel, will stay again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r331067039-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>331067039</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Room is very good value for money but renovation work reduces the overall rating</t>
+  </si>
+  <si>
+    <t>I agree with the other reviews on this Motel which when the renovation work is complete it will become a desirable motel for all on a budget. No issues with the room , safe , secure , nice bed and TV.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r325050400-Studio_6_Arlington-Arlington_Texas.html</t>
@@ -336,9 +507,6 @@
     <t>When we first walked in, I have to admit, I was ready to leave. We put our big boy pants on and checked in. All of the common areas were stripped down to bare concrete. It looked really bad. We went to our rooms and were very surprised. The room was very nice with new everything. There was an apartment size fridge two burner cook top and a microwave. New bathroom new paint everywhere. I would hold off using the property for a family vacation to 6 flags until they finished the renovation but for a trip to the game it works well. It looks like it will excellent when they get it done. Staff was very nice and it was pretty quiet.More</t>
   </si>
   <si>
-    <t>rfross</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r310813576-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -360,9 +528,6 @@
     <t>This used to be some other property and is now a Studio 6. It's undergoing major renovations but shows much promise. When completed this will probably be a really nice location.My room was the latest M6 style and had a big fridge, two-burner cooktop, microwave and sink. The bed was super comfortable and the A/C worked great. The only thing missing was a comfortable chair or couch to sit on.There is a good sized convenience store next door with a Subway. If you drive a  semi or big RV there is limited parking on the shoulder of the service drive. The driveway is real tight but I was able to park my 26' box truck in the uncrowded lot. Having a car gives you more flexibility to drive to restaurants in the area.I'd stay here again if I was in the area for an overnight stay.More</t>
   </si>
   <si>
-    <t>Victoria M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r296710836-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -381,7 +546,58 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Apollowoman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r294037517-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>294037517</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Speechless</t>
+  </si>
+  <si>
+    <t>This was by far the worst hotel stay ever. We arrived late at night and went to pay for the room and they notified they would not allow us to pay cash even though I was told I could when I made the reservation. The room we got assigned to smelled so strongly with mold that we had to be moved. They have tenants living on site. After begging to be moved they found us another room but it was smoking. I asked that they call the other Studio 6 in town to accommodate us and was informed "We don't do that". There was a huge basketball tournament in town so getting another room at midnight was out of the question. We contacted guest services who couldn't do anything except get us moved after the first night. I took pictures of the condition of the hotel and room. Mind you the pictures are from the second room we ended up in. After check in we found out that the hotel had no cable or internet. The management was a joke and just shrugged that there was nothing they could do. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Studio 6 Arlington, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>This was by far the worst hotel stay ever. We arrived late at night and went to pay for the room and they notified they would not allow us to pay cash even though I was told I could when I made the reservation. The room we got assigned to smelled so strongly with mold that we had to be moved. They have tenants living on site. After begging to be moved they found us another room but it was smoking. I asked that they call the other Studio 6 in town to accommodate us and was informed "We don't do that". There was a huge basketball tournament in town so getting another room at midnight was out of the question. We contacted guest services who couldn't do anything except get us moved after the first night. I took pictures of the condition of the hotel and room. Mind you the pictures are from the second room we ended up in. After check in we found out that the hotel had no cable or internet. The management was a joke and just shrugged that there was nothing they could do. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r283475720-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>283475720</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Not exaggerating!</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever been too! I didn't know that this hotel have permanent tenants. Then there were gang graffiti on the fence. There were tenants with pets that wasn't under control. I purchased two rooms near each other. I got one room on the first floor of a building and the 2nd room on the 3 floor of a totally different building. The elevator would make you think your not going to get off.  The TV didn't work in one of the rooms and there were several stains on the floor. The pictures are deceiving. I returned to the front desk and asked for a refund. The Front desk attendesk ask why and said that she seen worst. After telling her my kids are not going to sleep that far away from my husband and I then she proceeded with the refund. The hotel is being renovated but those obviously was not!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Studio 6 Arlington, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever been too! I didn't know that this hotel have permanent tenants. Then there were gang graffiti on the fence. There were tenants with pets that wasn't under control. I purchased two rooms near each other. I got one room on the first floor of a building and the 2nd room on the 3 floor of a totally different building. The elevator would make you think your not going to get off.  The TV didn't work in one of the rooms and there were several stains on the floor. The pictures are deceiving. I returned to the front desk and asked for a refund. The Front desk attendesk ask why and said that she seen worst. After telling her my kids are not going to sleep that far away from my husband and I then she proceeded with the refund. The hotel is being renovated but those obviously was not!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r278616405-Studio_6_Arlington-Arlington_Texas.html</t>
@@ -399,12 +615,6 @@
     <t>The guests are one  payment from homelessness.  Pit Bills, drug users, unemployed. The desk clerk herself told me she hates her job.  The lobby always has guests was arguing with the desk clerks.   The carpet is old filthy smelly toxic. The " remodeling" is CHEAP crap in a dilapidated building. The whole thing is a tear down. DON'T make a reservation, or your debit card is charged whether you stay or not.   TVs not hooked up &amp; working but that is the fault of Time Warner, not the  crooked management/owner.There were cracks in the door, peeling wall paper, A/C had no freon. Ice machines broke. You have to walk a mile down endless halls to get anywhere. This is a slum.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Studio 6 Arlington, responded to this reviewResponded June 8, 2015</t>
   </si>
   <si>
@@ -414,9 +624,6 @@
     <t>The guests are one  payment from homelessness.  Pit Bills, drug users, unemployed. The desk clerk herself told me she hates her job.  The lobby always has guests was arguing with the desk clerks.   The carpet is old filthy smelly toxic. The " remodeling" is CHEAP crap in a dilapidated building. The whole thing is a tear down. DON'T make a reservation, or your debit card is charged whether you stay or not.   TVs not hooked up &amp; working but that is the fault of Time Warner, not the  crooked management/owner.There were cracks in the door, peeling wall paper, A/C had no freon. Ice machines broke. You have to walk a mile down endless halls to get anywhere. This is a slum.More</t>
   </si>
   <si>
-    <t>TamaraReyna</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r265283969-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -438,9 +645,6 @@
     <t>Pros: Very clean, large 2 doublebed room, the beds were comfortable, hardwood floors, high pressure shower head, friendly staff, inroom coffee and coffee machine, iron and board, pet friendly, Smoking allowed, outdoor swimming pool    cons: extremely thin walls, entrances we're messy with old beds propped up against the wall, as we were leaving there was a pile of dog crap at the entrance by the elevator, the toilet didn't work right and the water kept rising upto the top and would never flush all the way down, there was a burn hole in the comforter but being a smoker that can be forgiven.    it was a Saturday and there was an event with the NASCAR races in town  so there wasn't very many rooms in Arlington or the surrounding cities and if there were most places were charging five times the rate the price we paid was 78 dollars and some change for one night.  this actually was one of the very best rates in town in lieu of all the problems would I stay there again yes. this place was acceptable yet not my first choiceMore</t>
   </si>
   <si>
-    <t>Camp84</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r226462877-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -456,7 +660,53 @@
     <t>Rooms smelled really bad. Needs upgrade on building seems like apartments than hotels.killed roaches in rooms the doors had cracks on the side wouldn't dident have good door fitting around frame!!!!!!!!!!!!! Most of all very noisy and a bunch of kids playing inside of building running through out the hallways ice machine in lobby not working.</t>
   </si>
   <si>
-    <t>TexTraveler21</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r220495016-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>220495016</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Old and Creepy</t>
+  </si>
+  <si>
+    <t>This hotel has definitely seen better days back when it was built in what I would assume to be the 70s. The appearance of the lobby is not too bad, but once you make your way up to your room, however, you will probably soon regret your decision to stay here. It took us awhile to find our room since it was in the hotel's second building that is connected with a breezeway. 
+After we eventually found our room through the hallways and hotel common areas populated with less than welcoming people I had to immediately call the front desk since one of the deadbolts on the two connecting doors in the room didn't lock. Maintenance came up a few minutes later and fixed the lock, but the two connecting doors in the room were incredibly creepy and annoying since we could hear the guests next door talking late into the night. On top of that, one of the connecting doors was missing its security guard and the main door's deadbolt didn't work so, needless to say, we felt pretty vulnerable and unsafe while we were in the room. 
+Besides the issues with security the room itself wasn't completely bad, other than the two weird double doors that led to the bathroom area that are more reminiscent of a dungeon than a bathroom. Oh, and the pool, one of the amenities that was listed on the hotel's website and that...This hotel has definitely seen better days back when it was built in what I would assume to be the 70s. The appearance of the lobby is not too bad, but once you make your way up to your room, however, you will probably soon regret your decision to stay here. It took us awhile to find our room since it was in the hotel's second building that is connected with a breezeway. After we eventually found our room through the hallways and hotel common areas populated with less than welcoming people I had to immediately call the front desk since one of the deadbolts on the two connecting doors in the room didn't lock. Maintenance came up a few minutes later and fixed the lock, but the two connecting doors in the room were incredibly creepy and annoying since we could hear the guests next door talking late into the night. On top of that, one of the connecting doors was missing its security guard and the main door's deadbolt didn't work so, needless to say, we felt pretty vulnerable and unsafe while we were in the room. Besides the issues with security the room itself wasn't completely bad, other than the two weird double doors that led to the bathroom area that are more reminiscent of a dungeon than a bathroom. Oh, and the pool, one of the amenities that was listed on the hotel's website and that was important to us was filled with water but closed. We stayed here because we needed a hotel that accepts pets and that has truck parking that was close to Six Flags, and although it is one of the few hotels in the area that meets all these requirements, I would highly advise you not to stay here if you're looking for a comfortable and decent to place to stay at since this hotel is definitely not either of those things.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This hotel has definitely seen better days back when it was built in what I would assume to be the 70s. The appearance of the lobby is not too bad, but once you make your way up to your room, however, you will probably soon regret your decision to stay here. It took us awhile to find our room since it was in the hotel's second building that is connected with a breezeway. 
+After we eventually found our room through the hallways and hotel common areas populated with less than welcoming people I had to immediately call the front desk since one of the deadbolts on the two connecting doors in the room didn't lock. Maintenance came up a few minutes later and fixed the lock, but the two connecting doors in the room were incredibly creepy and annoying since we could hear the guests next door talking late into the night. On top of that, one of the connecting doors was missing its security guard and the main door's deadbolt didn't work so, needless to say, we felt pretty vulnerable and unsafe while we were in the room. 
+Besides the issues with security the room itself wasn't completely bad, other than the two weird double doors that led to the bathroom area that are more reminiscent of a dungeon than a bathroom. Oh, and the pool, one of the amenities that was listed on the hotel's website and that...This hotel has definitely seen better days back when it was built in what I would assume to be the 70s. The appearance of the lobby is not too bad, but once you make your way up to your room, however, you will probably soon regret your decision to stay here. It took us awhile to find our room since it was in the hotel's second building that is connected with a breezeway. After we eventually found our room through the hallways and hotel common areas populated with less than welcoming people I had to immediately call the front desk since one of the deadbolts on the two connecting doors in the room didn't lock. Maintenance came up a few minutes later and fixed the lock, but the two connecting doors in the room were incredibly creepy and annoying since we could hear the guests next door talking late into the night. On top of that, one of the connecting doors was missing its security guard and the main door's deadbolt didn't work so, needless to say, we felt pretty vulnerable and unsafe while we were in the room. Besides the issues with security the room itself wasn't completely bad, other than the two weird double doors that led to the bathroom area that are more reminiscent of a dungeon than a bathroom. Oh, and the pool, one of the amenities that was listed on the hotel's website and that was important to us was filled with water but closed. We stayed here because we needed a hotel that accepts pets and that has truck parking that was close to Six Flags, and although it is one of the few hotels in the area that meets all these requirements, I would highly advise you not to stay here if you're looking for a comfortable and decent to place to stay at since this hotel is definitely not either of those things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r195313227-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>195313227</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Stay away!!</t>
+  </si>
+  <si>
+    <t>First they have me the wrong room, they moved me but charged more money to a room where the door looked like it had been kicked in. The tub was not clean it had hair in it and the carpet had holes in it and dirty. I would not stay here again, they need to update and clean up!MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Studio 6 Arlington, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>First they have me the wrong room, they moved me but charged more money to a room where the door looked like it had been kicked in. The tub was not clean it had hair in it and the carpet had holes in it and dirty. I would not stay here again, they need to update and clean up!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r161210499-Studio_6_Arlington-Arlington_Texas.html</t>
@@ -477,9 +727,6 @@
     <t>This hotel was everything I expected for the rate paid. The staff was friendly and helpful, the room was very small but it was cheap and clean. Our reservation for a non smoking king room was not found in their computer when we tried to check in and all they had left was smoking rooms which we relucantly accepted after the clerk assured us that the room would not smell like smoke. She was right, aside from the ashtray in the room, there was no distinguishing otherwise. The hallway was a totally different story though! I just held my breath every time I walked through to my room because the musty smell of smoke was overwhelming! The hotel is somewhat run down and even though this is an extended stay hotel I do believe people actually live on a more "long term" basis at this property. It has the distinct feel of a low income apartment complex more than a hotel. But overall this place was in the area I wanted to stay, offered what I needed at a price I couldn't beat and I probably will stay here should I ever have the need again.More</t>
   </si>
   <si>
-    <t>G H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r156075565-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -501,9 +748,6 @@
     <t>Checked into the hotel and needed a first floor room.  Gave us room 306, a handicapped room.  The room had an odd smell, and there was no tub of course, just the shower that the water ran all over the floor.  The commode clogged up. The refrigerator did not cool very well.  Upon check in the lady at the front desk was the rudest person I have ever encountered.  We requested a different room on the first floor a couple days later.  The room was very clean and up to date and everything was working fine.  Also, dealt with other hotel staff who were very nice.  The price is certainly right and they do allow you to have an animal for a small deposit.  So all in all I would give the hotel an average rating.More</t>
   </si>
   <si>
-    <t>califdann</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r148068973-Studio_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -525,7 +769,40 @@
     <t>This property has seen better days. The property faces away from the street, so the  Front lobby is at the back of the property.  The Front Lobby gives you the impression of a very nice Hotel/Motel.  The night clerk was very pleasant, helpful, and pleasing.  The checkin process was ok.  Parking was ok and near the front lobby.  The experience went downhill from there.  The room was smelly and, dirty.  We asked for another room, but it was equally as bad, so we kept the initial room.  Carpets were stained.  There was debris around the room.  Walls were stained.  The tub / shower water temp never really got above barely warm.  Coffee maker worked, and there were bags of coffee in the room.  The small refer was stained, and we did not use it.  There were doors to next rooms on two sides of our room.  We could hear laughing and talking through one of the doors till late late into the night.  T.V. worked fine.  I was disappointed, I thought that booking a room at an extended stay property would be an upgrade, but this is not the case.More</t>
   </si>
   <si>
-    <t>Roy V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r141663860-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>141663860</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>WTH!</t>
+  </si>
+  <si>
+    <t>The Bad: room had smell. couch bed had stains. wouldn't give us extra sheets. gave us only one sheet with a stain. toilet overflowed. headboard fell.  outside doors are not secured, anyone can enter building. strange bug on bed.  The Good:  Lobby looks great.  Granite counter in bathroom and very contemporary nice sink.  Kitchenette is decent.  After all of the problems, we did not stay and asked for and received refund with no questions asked.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r134866908-Studio_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>134866908</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>I knew it would be bad, but ........</t>
+  </si>
+  <si>
+    <t>The first night there was no key because the card machine was broken,  the second night no internet.   The third night there was loud parties until 3 a.m. on a Thursday night.    I felt like I was in a hot bed of criminal activity and I was only there on weekdays.    The staff was very nice and I feel sorry for them.   I won't go back.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98395-r131472444-Studio_6_Arlington-Arlington_Texas.html</t>
@@ -1048,47 +1325,43 @@
       <c r="A2" t="n">
         <v>20867</v>
       </c>
-      <c r="B2" t="n">
-        <v>8110</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1102,180 +1375,178 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20867</v>
       </c>
-      <c r="B3" t="n">
-        <v>30135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20867</v>
       </c>
-      <c r="B4" t="n">
-        <v>178196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20867</v>
       </c>
-      <c r="B5" t="n">
-        <v>178197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1286,65 +1557,63 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20867</v>
       </c>
-      <c r="B6" t="n">
-        <v>7214</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1353,193 +1622,171 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" t="s">
-        <v>90</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20867</v>
       </c>
-      <c r="B7" t="n">
-        <v>178198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20867</v>
       </c>
-      <c r="B8" t="n">
-        <v>178199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20867</v>
       </c>
-      <c r="B9" t="n">
-        <v>97557</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1553,186 +1800,170 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20867</v>
       </c>
-      <c r="B10" t="n">
-        <v>6587</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>120</v>
-      </c>
       <c r="O10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20867</v>
       </c>
-      <c r="B11" t="n">
-        <v>178200</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="O11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>129</v>
-      </c>
-      <c r="X11" t="s">
-        <v>130</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20867</v>
       </c>
-      <c r="B12" t="n">
-        <v>178201</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1746,130 +1977,124 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20867</v>
       </c>
-      <c r="B13" t="n">
-        <v>178202</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20867</v>
       </c>
-      <c r="B14" t="n">
-        <v>178203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
       <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>4</v>
@@ -1880,70 +2105,60 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20867</v>
       </c>
-      <c r="B15" t="n">
-        <v>86439</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="n">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
         <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1951,70 +2166,60 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20867</v>
       </c>
-      <c r="B16" t="n">
-        <v>178204</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2022,70 +2227,62 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20867</v>
       </c>
-      <c r="B17" t="n">
-        <v>178205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
         <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2093,7 +2290,956 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
         <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>191</v>
+      </c>
+      <c r="X21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20867</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s">
+        <v>265</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>266</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
